--- a/src/attributions/attributions_saliency_traj_55.xlsx
+++ b/src/attributions/attributions_saliency_traj_55.xlsx
@@ -1004,2278 +1004,2278 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001848145184339955</v>
+        <v>0.0114008504897356</v>
       </c>
       <c r="B2" t="n">
-        <v>7.096101762726903e-05</v>
+        <v>0.009290228597819805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002189242513850331</v>
+        <v>0.01238442678004503</v>
       </c>
       <c r="D2" t="n">
-        <v>3.75131203327328e-05</v>
+        <v>0.04620526358485222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003355637600179762</v>
+        <v>0.2036692649126053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001550125743960962</v>
+        <v>0.07140059769153595</v>
       </c>
       <c r="G2" t="n">
-        <v>2.143677556887269e-05</v>
+        <v>0.01118337363004684</v>
       </c>
       <c r="H2" t="n">
-        <v>8.938528480939567e-05</v>
+        <v>0.008524441160261631</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000602192769292742</v>
+        <v>0.1754325926303864</v>
       </c>
       <c r="J2" t="n">
-        <v>3.798805119004101e-05</v>
+        <v>0.01636394113302231</v>
       </c>
       <c r="K2" t="n">
-        <v>7.613399793626741e-05</v>
+        <v>0.1217215657234192</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001988507865462452</v>
+        <v>0.0417640209197998</v>
       </c>
       <c r="M2" t="n">
-        <v>2.274183316330891e-06</v>
+        <v>0.1102507561445236</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002071245544357225</v>
+        <v>0.09107838571071625</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001960081863217056</v>
+        <v>0.0399463102221489</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001358774898108095</v>
+        <v>0.03924416750669479</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.720074866781943e-05</v>
+        <v>0.03255756199359894</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0005469463067129254</v>
+        <v>0.1162918731570244</v>
       </c>
       <c r="S2" t="n">
-        <v>5.304188380250707e-05</v>
+        <v>0.05248870700597763</v>
       </c>
       <c r="T2" t="n">
-        <v>1.751365562085994e-05</v>
+        <v>0.03365108370780945</v>
       </c>
       <c r="U2" t="n">
-        <v>1.28827741718851e-06</v>
+        <v>0.02736959978938103</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002451155451126397</v>
+        <v>0.01880306750535965</v>
       </c>
       <c r="W2" t="n">
-        <v>6.880219734739512e-05</v>
+        <v>0.02764557488262653</v>
       </c>
       <c r="X2" t="n">
-        <v>3.58546230927459e-07</v>
+        <v>0.03491233661770821</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001119502558140084</v>
+        <v>0.01892534457147121</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.28895907336846e-05</v>
+        <v>0.003379305824637413</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.916780795203522e-05</v>
+        <v>0.0064566470682621</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.674978456227109e-05</v>
+        <v>0.07038994133472443</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.244355401780922e-06</v>
+        <v>0.024204446002841</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.96198660787195e-05</v>
+        <v>0.06345857679843903</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.595008744625375e-05</v>
+        <v>0.04373499751091003</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.226398156490177e-05</v>
+        <v>0.03782454505562782</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0001208184257848188</v>
+        <v>0.1046690344810486</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.942929081153125e-05</v>
+        <v>0.05056943744421005</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0002449203457217664</v>
+        <v>0.04577747732400894</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0002145051985280588</v>
+        <v>0.0710577517747879</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.823312413762324e-05</v>
+        <v>0.02135906368494034</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.809950329829007e-05</v>
+        <v>0.05457154661417007</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.383349419687875e-05</v>
+        <v>0.03273606672883034</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.705857670865953e-05</v>
+        <v>0.08243788778781891</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.356212098675314e-05</v>
+        <v>0.02403371594846249</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0002662472834344953</v>
+        <v>0.008535818196833134</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.143938374705613e-05</v>
+        <v>0.05591357871890068</v>
       </c>
       <c r="AR2" t="n">
-        <v>8.629020885564387e-05</v>
+        <v>0.001700110733509064</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.525995609583333e-05</v>
+        <v>0.02379255369305611</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.776146180229262e-05</v>
+        <v>0.002495314925909042</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.673437019344419e-05</v>
+        <v>0.1513153612613678</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0002026928123086691</v>
+        <v>0.02150359749794006</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.39755676779896e-05</v>
+        <v>0.0239972397685051</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.132530764560215e-05</v>
+        <v>0.06210489571094513</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0001923951203934848</v>
+        <v>0.03607910871505737</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001375703868689016</v>
+        <v>0.01191801205277443</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.000144947916851379</v>
+        <v>0.05953684821724892</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0003104196512140334</v>
+        <v>0.1032239645719528</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.554739280138165e-05</v>
+        <v>0.02058849856257439</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.242806658614427e-05</v>
+        <v>0.05984816700220108</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0001010161577141844</v>
+        <v>0.01549633406102657</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.058677662513219e-05</v>
+        <v>0.05796436220407486</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.112391515169293e-05</v>
+        <v>0.02582152001559734</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0002032751945080236</v>
+        <v>0.004040401428937912</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.764630309888162e-05</v>
+        <v>0.02504276111721992</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0001079421272152103</v>
+        <v>0.08863680064678192</v>
       </c>
       <c r="BK2" t="n">
-        <v>9.754778875503689e-05</v>
+        <v>0.04487070441246033</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.011620356119238e-05</v>
+        <v>0.007973935455083847</v>
       </c>
       <c r="BM2" t="n">
-        <v>4.561539390124381e-05</v>
+        <v>0.08957476913928986</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.699005072936416e-05</v>
+        <v>0.01727988384664059</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.094124207971618e-05</v>
+        <v>0.01599270477890968</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.40283295372501e-05</v>
+        <v>0.0899447575211525</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.209209676744649e-05</v>
+        <v>0.001664316281676292</v>
       </c>
       <c r="BR2" t="n">
-        <v>5.36271181772463e-05</v>
+        <v>0.03963742405176163</v>
       </c>
       <c r="BS2" t="n">
-        <v>9.265231346944347e-05</v>
+        <v>0.03485684469342232</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.878716622944921e-05</v>
+        <v>0.02262667752802372</v>
       </c>
       <c r="BU2" t="n">
-        <v>8.27354087959975e-05</v>
+        <v>0.006715078838169575</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.116187144769356e-05</v>
+        <v>0.04568810760974884</v>
       </c>
       <c r="BW2" t="n">
-        <v>3.03718879877124e-05</v>
+        <v>0.02576746046543121</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.72102760290727e-05</v>
+        <v>0.04673457145690918</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001127595387515612</v>
+        <v>0.02662917412817478</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.458633414586075e-05</v>
+        <v>0.006739461794495583</v>
       </c>
       <c r="CA2" t="n">
-        <v>5.112811777507886e-06</v>
+        <v>0.008590514771640301</v>
       </c>
       <c r="CB2" t="n">
-        <v>6.094059426686727e-05</v>
+        <v>0.0322420597076416</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002823355898726732</v>
+        <v>0.01610049046576023</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.173058576066978e-05</v>
+        <v>0.0009050597436726093</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.612015643739142e-05</v>
+        <v>0.008463339880108833</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.92294864973519e-05</v>
+        <v>0.009739299304783344</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.909438237315044e-05</v>
+        <v>0.002203722018748522</v>
       </c>
       <c r="CH2" t="n">
-        <v>7.746696064714342e-05</v>
+        <v>0.01344943325966597</v>
       </c>
       <c r="CI2" t="n">
-        <v>5.168956704437733e-05</v>
+        <v>0.02970149926841259</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.842570731649175e-05</v>
+        <v>0.02616937458515167</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.388840584899299e-05</v>
+        <v>0.005246019922196865</v>
       </c>
       <c r="CL2" t="n">
-        <v>7.996985368663445e-05</v>
+        <v>0.0202579777687788</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001683365262579173</v>
+        <v>0.003493529744446278</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0002498365647625178</v>
+        <v>0.00481465645134449</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.612002132693306e-05</v>
+        <v>0.005889412946999073</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.310602424899116e-06</v>
+        <v>0.01336967665702105</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.001847264589742e-05</v>
+        <v>0.1140614598989487</v>
       </c>
       <c r="CR2" t="n">
-        <v>6.549886893481016e-05</v>
+        <v>0.0257740207016468</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.436044789850712e-05</v>
+        <v>0.000597955659031868</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.336890586069785e-07</v>
+        <v>0.02024224400520325</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.084392897610087e-05</v>
+        <v>0.005366470664739609</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.588069375837222e-05</v>
+        <v>0.000220930203795433</v>
       </c>
       <c r="CW2" t="n">
-        <v>5.993423837935552e-05</v>
+        <v>0.001677259569987655</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.426773451385088e-05</v>
+        <v>0.007469938136637211</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.645277006900869e-05</v>
+        <v>0.007710199803113937</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.163764530560002e-05</v>
+        <v>0.01063176151365042</v>
       </c>
       <c r="DA2" t="n">
-        <v>7.382761396002024e-05</v>
+        <v>0.01682183519005775</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.554054481151979e-05</v>
+        <v>0.02810138091444969</v>
       </c>
       <c r="DC2" t="n">
-        <v>3.185172681696713e-05</v>
+        <v>0.00598547700792551</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.000122944125905633</v>
+        <v>0.02446183934807777</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.000270554912276566</v>
+        <v>0.01331159844994545</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001857170864241198</v>
+        <v>0.1257195770740509</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0002390626614214852</v>
+        <v>0.1095635890960693</v>
       </c>
       <c r="DH2" t="n">
-        <v>8.677641017129645e-05</v>
+        <v>0.02160240523517132</v>
       </c>
       <c r="DI2" t="n">
-        <v>3.776899393415079e-05</v>
+        <v>0.01151181384921074</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001827156957006082</v>
+        <v>0.1058338806033134</v>
       </c>
       <c r="DK2" t="n">
-        <v>6.911411765031517e-05</v>
+        <v>0.03412088006734848</v>
       </c>
       <c r="DL2" t="n">
-        <v>3.43950632668566e-05</v>
+        <v>0.01199894398450851</v>
       </c>
       <c r="DM2" t="n">
-        <v>8.180435543181375e-05</v>
+        <v>0.06953798234462738</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.005222606589086e-05</v>
+        <v>0.01856059022247791</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.437968760204967e-07</v>
+        <v>0.04542550072073936</v>
       </c>
       <c r="DP2" t="n">
-        <v>5.570168286794797e-05</v>
+        <v>0.0496932677924633</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3.134491271339357e-05</v>
+        <v>0.02164163812994957</v>
       </c>
       <c r="DR2" t="n">
-        <v>2.546984433138277e-05</v>
+        <v>0.004845666233450174</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.173562643292826e-05</v>
+        <v>0.0585830993950367</v>
       </c>
       <c r="DT2" t="n">
-        <v>7.308776548597962e-05</v>
+        <v>0.02740770950913429</v>
       </c>
       <c r="DU2" t="n">
-        <v>7.673961954424158e-05</v>
+        <v>0.03110692463815212</v>
       </c>
       <c r="DV2" t="n">
-        <v>5.539084668271244e-05</v>
+        <v>0.02877294272184372</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.056634886888787e-05</v>
+        <v>0.008169453591108322</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.984342038165778e-05</v>
+        <v>0.01459446921944618</v>
       </c>
       <c r="DY2" t="n">
-        <v>6.396551725629251e-06</v>
+        <v>0.01420955918729305</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.398209289822262e-06</v>
+        <v>0.04986914247274399</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0001365750795230269</v>
+        <v>0.06158265471458435</v>
       </c>
       <c r="EB2" t="n">
-        <v>6.467160346801393e-06</v>
+        <v>0.04688847810029984</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.818377808784135e-05</v>
+        <v>0.01067251525819302</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.474686334608123e-05</v>
+        <v>0.05876529589295387</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0001091036392608657</v>
+        <v>0.006348925642669201</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.505913289496675e-05</v>
+        <v>0.004159818403422832</v>
       </c>
       <c r="EG2" t="n">
-        <v>8.622554014436901e-05</v>
+        <v>0.004660217091441154</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.436216734873597e-06</v>
+        <v>0.00186718930490315</v>
       </c>
       <c r="EI2" t="n">
-        <v>3.184978595527355e-06</v>
+        <v>0.008334466256201267</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.473046151862945e-06</v>
+        <v>0.03408000618219376</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001442814827896655</v>
+        <v>0.03088290244340897</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.618080568732694e-05</v>
+        <v>0.03439315408468246</v>
       </c>
       <c r="EM2" t="n">
-        <v>7.796008139848709e-05</v>
+        <v>0.0288121122866869</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0001431466225767508</v>
+        <v>0.03988869115710258</v>
       </c>
       <c r="EO2" t="n">
-        <v>9.117174340644851e-05</v>
+        <v>0.01999261789023876</v>
       </c>
       <c r="EP2" t="n">
-        <v>7.140958041418344e-05</v>
+        <v>0.0267226304858923</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.034018325502984e-05</v>
+        <v>0.07669623196125031</v>
       </c>
       <c r="ER2" t="n">
-        <v>8.560273272451013e-05</v>
+        <v>0.02187421359121799</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.999188316403888e-05</v>
+        <v>0.002161119831725955</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0001088268254534341</v>
+        <v>0.06002040207386017</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.064510524884099e-05</v>
+        <v>0.01795442588627338</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.708657873678021e-05</v>
+        <v>0.04254695028066635</v>
       </c>
       <c r="EW2" t="n">
-        <v>5.261486148810945e-05</v>
+        <v>0.0242635291069746</v>
       </c>
       <c r="EX2" t="n">
-        <v>4.711576912086457e-05</v>
+        <v>0.007061620242893696</v>
       </c>
       <c r="EY2" t="n">
-        <v>6.579351611435413e-05</v>
+        <v>0.01589549519121647</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.792913099052384e-05</v>
+        <v>0.01031594537198544</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.794157939613797e-05</v>
+        <v>0.006307425443083048</v>
       </c>
       <c r="FB2" t="n">
-        <v>4.117241769563407e-05</v>
+        <v>0.003066409844905138</v>
       </c>
       <c r="FC2" t="n">
-        <v>5.703669012291357e-05</v>
+        <v>0.02614579349756241</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.376575114089064e-05</v>
+        <v>0.02318435907363892</v>
       </c>
       <c r="FE2" t="n">
-        <v>5.182662789593451e-06</v>
+        <v>0.002849660348147154</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0001256151736015454</v>
+        <v>0.006407267414033413</v>
       </c>
       <c r="FG2" t="n">
-        <v>8.877527579898015e-05</v>
+        <v>0.01663884706795216</v>
       </c>
       <c r="FH2" t="n">
-        <v>5.344508099369705e-05</v>
+        <v>0.05323564261198044</v>
       </c>
       <c r="FI2" t="n">
-        <v>4.250643542036414e-05</v>
+        <v>0.06674464046955109</v>
       </c>
       <c r="FJ2" t="n">
-        <v>3.678949360619299e-05</v>
+        <v>0.0326632633805275</v>
       </c>
       <c r="FK2" t="n">
-        <v>5.601234079222195e-05</v>
+        <v>0.07244525849819183</v>
       </c>
       <c r="FL2" t="n">
-        <v>7.057734910631552e-05</v>
+        <v>0.06272178888320923</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.652015170198865e-05</v>
+        <v>0.05417866632342339</v>
       </c>
       <c r="FN2" t="n">
-        <v>6.238109108380741e-06</v>
+        <v>0.06590963900089264</v>
       </c>
       <c r="FO2" t="n">
-        <v>3.934307824238203e-05</v>
+        <v>0.0122879222035408</v>
       </c>
       <c r="FP2" t="n">
-        <v>6.58753197058104e-05</v>
+        <v>0.002776407403871417</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3.887960338033736e-05</v>
+        <v>0.03393351659178734</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0001022784781525843</v>
+        <v>0.04019113630056381</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001729016221361235</v>
+        <v>0.02630992606282234</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.1454350897111e-05</v>
+        <v>0.0003293618792667985</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.682830017874949e-05</v>
+        <v>0.07643880695104599</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0002051880292128772</v>
+        <v>0.003089917823672295</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0001232052745763212</v>
+        <v>0.06717703491449356</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001133503756136633</v>
+        <v>0.157571405172348</v>
       </c>
       <c r="FY2" t="n">
-        <v>3.686951458803378e-05</v>
+        <v>0.003279443131759763</v>
       </c>
       <c r="FZ2" t="n">
-        <v>4.337497375672683e-05</v>
+        <v>0.006133469752967358</v>
       </c>
       <c r="GA2" t="n">
-        <v>2.155546826543286e-05</v>
+        <v>0.04418561235070229</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.998070885951165e-05</v>
+        <v>0.02070997841656208</v>
       </c>
       <c r="GC2" t="n">
-        <v>4.511086081038229e-05</v>
+        <v>0.02852549776434898</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001153306729975156</v>
+        <v>0.0347662977874279</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.414305188518483e-05</v>
+        <v>0.008222443982958794</v>
       </c>
       <c r="GF2" t="n">
-        <v>3.127319723716937e-05</v>
+        <v>0.1171218678355217</v>
       </c>
       <c r="GG2" t="n">
-        <v>3.925566852558404e-05</v>
+        <v>0.0408913753926754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003062269650399685</v>
+        <v>0.02423620782792568</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01028289459645748</v>
+        <v>0.1829823106527328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005107605829834938</v>
+        <v>0.01063393335789442</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007803395390510559</v>
+        <v>0.08901499211788177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003672225866466761</v>
+        <v>0.01254600938409567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0015264778630808</v>
+        <v>0.08539918065071106</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005392433144152164</v>
+        <v>0.0229005441069603</v>
       </c>
       <c r="H3" t="n">
-        <v>7.183280104072765e-05</v>
+        <v>0.03116029500961304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01894708909094334</v>
+        <v>0.01367470342665911</v>
       </c>
       <c r="J3" t="n">
-        <v>1.826666994020343e-05</v>
+        <v>0.04024779051542282</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006834625266492367</v>
+        <v>0.1246045380830765</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00813357625156641</v>
+        <v>0.003840942168608308</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0064841378480196</v>
+        <v>0.09714889526367188</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004915192723274231</v>
+        <v>0.03356537595391273</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005366050638258457</v>
+        <v>0.1039983555674553</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005717082414776087</v>
+        <v>0.01090881042182446</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008414714247919619</v>
+        <v>0.002614577300846577</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02132377028465271</v>
+        <v>0.01324327569454908</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004348273389041424</v>
+        <v>0.01028623059391975</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0008555124513804913</v>
+        <v>0.02310492470860481</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001020615571178496</v>
+        <v>0.00976879894733429</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005199537146836519</v>
+        <v>0.0242583304643631</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007998361252248287</v>
+        <v>0.02324461936950684</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00340668554417789</v>
+        <v>0.00586130004376173</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001013978035189211</v>
+        <v>0.01837781816720963</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0005852951435372233</v>
+        <v>0.01790199242532253</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003788335015997291</v>
+        <v>0.02369847521185875</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001395451137796044</v>
+        <v>0.006476674228906631</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.004798360634595156</v>
+        <v>0.03081235289573669</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0006852138321846724</v>
+        <v>0.00591969583183527</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.003544834442436695</v>
+        <v>0.001106140669435263</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.001714760437607765</v>
+        <v>0.004728703759610653</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001528765773400664</v>
+        <v>0.009095543995499611</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001814372139051557</v>
+        <v>0.01335970219224691</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.001677287044003606</v>
+        <v>0.004898715764284134</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0065979128703475</v>
+        <v>0.005720194894820452</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.001283011981286108</v>
+        <v>0.01779043115675449</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.002234802348539233</v>
+        <v>0.02813582494854927</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.001412667683325708</v>
+        <v>0.005001440644264221</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0009928960353136063</v>
+        <v>0.01340495981276035</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.261068872641772e-05</v>
+        <v>0.005894853733479977</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.006789409555494785</v>
+        <v>0.02476158738136292</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002030101139098406</v>
+        <v>4.667299799621105e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001213088864460588</v>
+        <v>0.0115110632032156</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001647265395149589</v>
+        <v>0.01287789270281792</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001318728900514543</v>
+        <v>0.01494590099900961</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0004556540516205132</v>
+        <v>0.131108820438385</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.008651827462017536</v>
+        <v>0.0007105302647687495</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.002507512457668781</v>
+        <v>0.009039625525474548</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.002391788642853498</v>
+        <v>0.01668635196983814</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01125430501997471</v>
+        <v>0.05523139238357544</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.002254505641758442</v>
+        <v>0.01034051273018122</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.003428437747061253</v>
+        <v>0.02140181697905064</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.006187168415635824</v>
+        <v>0.03313784673810005</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0005828097346238792</v>
+        <v>0.008460157550871372</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.004372325260192156</v>
+        <v>0.02030823938548565</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.001601442112587392</v>
+        <v>0.03807610273361206</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001162439119070768</v>
+        <v>0.03079193830490112</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.002511844737455249</v>
+        <v>0.0469990000128746</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.00707510020583868</v>
+        <v>0.01319129671901464</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0007069330895319581</v>
+        <v>0.01611129008233547</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.004415840841829777</v>
+        <v>0.03404799103736877</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.004297515843063593</v>
+        <v>0.003884013276547194</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0003674701729323715</v>
+        <v>0.005200808867812157</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.002282957779243588</v>
+        <v>0.0232177022844553</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.004018922336399555</v>
+        <v>0.008707855828106403</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003746508155018091</v>
+        <v>0.03818565234541893</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0001339351292699575</v>
+        <v>0.02187461405992508</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0005242518382146955</v>
+        <v>0.002851876430213451</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001736981212161481</v>
+        <v>0.00925464928150177</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.001576359733007848</v>
+        <v>0.008681926876306534</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.004612396471202374</v>
+        <v>0.002340892795473337</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.001240387558937073</v>
+        <v>0.01066337525844574</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.002376957796514034</v>
+        <v>0.06354033201932907</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.002701221965253353</v>
+        <v>0.008691124618053436</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.004878717474639416</v>
+        <v>0.01719072088599205</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.001783417770639062</v>
+        <v>0.02223901636898518</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0001586643920745701</v>
+        <v>0.003866899758577347</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.003062123199924827</v>
+        <v>0.01434181816875935</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0003894114925060421</v>
+        <v>0.00810545776039362</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01048378739506006</v>
+        <v>0.02372247725725174</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001004250516416505</v>
+        <v>0.00931757315993309</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.004768291022628546</v>
+        <v>0.03125182911753654</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0006942818290553987</v>
+        <v>0.01758889853954315</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.001361638540402055</v>
+        <v>0.01377321500331163</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.001605883007869124</v>
+        <v>0.008274752646684647</v>
       </c>
       <c r="CI3" t="n">
-        <v>4.98663866892457e-05</v>
+        <v>0.0161842368543148</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0002548941411077976</v>
+        <v>0.004181918688118458</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.000797810556832701</v>
+        <v>0.008259440772235394</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.002789442893117666</v>
+        <v>0.01310871727764606</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.003028020262718201</v>
+        <v>0.02419871836900711</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.004510596394538879</v>
+        <v>0.00467888405546546</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001672255806624889</v>
+        <v>0.008976518176496029</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.002382350619882345</v>
+        <v>0.01238946989178658</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.005412610247731209</v>
+        <v>0.004902535118162632</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.002350990893319249</v>
+        <v>0.01151017006486654</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0004337612772360444</v>
+        <v>0.01582704484462738</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.004153267946094275</v>
+        <v>0.0196402445435524</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0004506763652898371</v>
+        <v>0.003302670549601316</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0005191774107515812</v>
+        <v>0.006465943530201912</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.005239969119429588</v>
+        <v>0.02447797730565071</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0007458431646227837</v>
+        <v>0.01717558316886425</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.001369620906189084</v>
+        <v>0.02298787795007229</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.003096292726695538</v>
+        <v>0.007176793180406094</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0009725698037073016</v>
+        <v>0.01772148162126541</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0005065934383310378</v>
+        <v>0.005699571687728167</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0005895780050195754</v>
+        <v>0.01383071951568127</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.003426565555855632</v>
+        <v>0.007139322347939014</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003868188709020615</v>
+        <v>0.003980961628258228</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.01278029941022396</v>
+        <v>0.02956760302186012</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01042323932051659</v>
+        <v>0.007309985347092152</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.003532946808263659</v>
+        <v>0.04260701686143875</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.00373372808098793</v>
+        <v>0.003208695445209742</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.005522661376744509</v>
+        <v>0.00712530268356204</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.004701412282884121</v>
+        <v>0.0235335286706686</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0005915532819926739</v>
+        <v>0.004546692129224539</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0008449236047454178</v>
+        <v>0.009682349860668182</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001570096588693559</v>
+        <v>0.01340915821492672</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0005350501742213964</v>
+        <v>0.01020368840545416</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001734226592816412</v>
+        <v>0.01634254306554794</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.002352096140384674</v>
+        <v>0.01540617924183607</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.001811701105907559</v>
+        <v>0.006048811599612236</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.003771583084017038</v>
+        <v>0.01994647644460201</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.003381413873285055</v>
+        <v>0.009798303246498108</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.002709609689190984</v>
+        <v>0.02104378491640091</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.002019631443545222</v>
+        <v>0.01926967687904835</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001247400417923927</v>
+        <v>0.006815141066908836</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0001002951757982373</v>
+        <v>0.005886394530534744</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0008521856507286429</v>
+        <v>0.03860631212592125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.002103520790114999</v>
+        <v>0.005936085246503353</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.002020691055804491</v>
+        <v>0.008901343680918217</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0006671328446827829</v>
+        <v>0.01187216676771641</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001228587119840086</v>
+        <v>0.003595031797885895</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.004059681203216314</v>
+        <v>0.009034565649926662</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.003946061711758375</v>
+        <v>0.006288819015026093</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0002397342177573591</v>
+        <v>0.007508008740842342</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.0055241952650249</v>
+        <v>0.008363138884305954</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0005630188388749957</v>
+        <v>0.008862143382430077</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.001779294572770596</v>
+        <v>0.002336809411644936</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0004107697168365121</v>
+        <v>0.00336180068552494</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0006107563385739923</v>
+        <v>0.01309722568839788</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.004020564258098602</v>
+        <v>0.006276290863752365</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.001645348849706352</v>
+        <v>0.00785934180021286</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.004006905481219292</v>
+        <v>0.006021803710609674</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0006179394549690187</v>
+        <v>0.006911526434123516</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.004168907646089792</v>
+        <v>0.01696279086172581</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.005481511820107698</v>
+        <v>0.00421760743483901</v>
       </c>
       <c r="ER3" t="n">
-        <v>6.416952237486839e-05</v>
+        <v>0.01267335563898087</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0001269186905119568</v>
+        <v>0.01556849200278521</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.003679497633129358</v>
+        <v>0.04842415079474449</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.001859058742411435</v>
+        <v>0.0149300517514348</v>
       </c>
       <c r="EV3" t="n">
-        <v>7.203142740763724e-05</v>
+        <v>0.04321001097559929</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001358532696031034</v>
+        <v>0.009146403521299362</v>
       </c>
       <c r="EX3" t="n">
-        <v>2.395858609816059e-05</v>
+        <v>0.006539107766002417</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.004721508361399174</v>
+        <v>0.0227284412831068</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.001092713675461709</v>
+        <v>0.01051102578639984</v>
       </c>
       <c r="FA3" t="n">
-        <v>6.783298158552498e-05</v>
+        <v>0.01832115836441517</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.002041465835645795</v>
+        <v>0.008726911619305611</v>
       </c>
       <c r="FC3" t="n">
-        <v>9.621086064726114e-05</v>
+        <v>0.01515391189604998</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.000363654806278646</v>
+        <v>0.009749001823365688</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0002357918274356052</v>
+        <v>0.008449425920844078</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.004091443493962288</v>
+        <v>0.0123849343508482</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0008748441468924284</v>
+        <v>0.002691839821636677</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.005058628041297197</v>
+        <v>0.02464078180491924</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.002923480467870831</v>
+        <v>0.02026189677417278</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.003328783204779029</v>
+        <v>0.01404235139489174</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.001518222270533442</v>
+        <v>0.005723751150071621</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.001869792467914522</v>
+        <v>0.004653895739465952</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.001191067392937839</v>
+        <v>0.00614073034375906</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.006142233964055777</v>
+        <v>0.008171925321221352</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.002166953403502703</v>
+        <v>0.006581512279808521</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.000101143610663712</v>
+        <v>0.0162105206400156</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.002251575235277414</v>
+        <v>0.004682428203523159</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.002768657635897398</v>
+        <v>0.01548678334802389</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.002119842916727066</v>
+        <v>0.01220445800572634</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002128891879692674</v>
+        <v>0.03370485082268715</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.002403773367404938</v>
+        <v>0.0188278816640377</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002434282563626766</v>
+        <v>0.003637195099145174</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001754382741637528</v>
+        <v>0.02369644865393639</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0040974379517138</v>
+        <v>0.009116878733038902</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001239963225089014</v>
+        <v>0.02221053838729858</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.000607469875831157</v>
+        <v>0.009627294726669788</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0007928879931569099</v>
+        <v>0.01419347524642944</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.005274568218737841</v>
+        <v>0.01058245729655027</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0008585043833591044</v>
+        <v>0.02806808054447174</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0003705838462337852</v>
+        <v>0.009544430300593376</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.001933213439770043</v>
+        <v>0.07658179849386215</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.002861620159819722</v>
+        <v>0.0003977064043283463</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002294524572789669</v>
+        <v>0.0114544341340661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3020795583724976</v>
+        <v>0.9300550222396851</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3248981833457947</v>
+        <v>0.01280385255813599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2715885043144226</v>
+        <v>2.159307956695557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4376906156539917</v>
+        <v>2.5442054271698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6508787274360657</v>
+        <v>0.8003158569335938</v>
       </c>
       <c r="F4" t="n">
-        <v>1.255057454109192</v>
+        <v>0.6452460885047913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2979873418807983</v>
+        <v>0.7318891286849976</v>
       </c>
       <c r="H4" t="n">
-        <v>1.909623980522156</v>
+        <v>0.01416449993848801</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2643643617630005</v>
+        <v>0.6770637631416321</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0936567559838295</v>
+        <v>1.02052116394043</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02803754806518555</v>
+        <v>0.2547021806240082</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3762548565864563</v>
+        <v>1.663714170455933</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5309332609176636</v>
+        <v>2.201976776123047</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8379447460174561</v>
+        <v>0.6098865866661072</v>
       </c>
       <c r="O4" t="n">
-        <v>1.326260685920715</v>
+        <v>0.5985002517700195</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3803802132606506</v>
+        <v>0.1138189136981964</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.109931230545044</v>
+        <v>0.01720308884978294</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2498208731412888</v>
+        <v>1.004596948623657</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4350798726081848</v>
+        <v>0.1727655082941055</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0482729859650135</v>
+        <v>0.350965291261673</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1086178421974182</v>
+        <v>0.4733249247074127</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04093561321496964</v>
+        <v>0.423801600933075</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1193353310227394</v>
+        <v>0.3658215999603271</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2701980769634247</v>
+        <v>0.1732556819915771</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05846630409359932</v>
+        <v>0.346220076084137</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5012400150299072</v>
+        <v>0.283041924238205</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.04583398625254631</v>
+        <v>0.0250334870070219</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.08617369085550308</v>
+        <v>0.7444796562194824</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1528005450963974</v>
+        <v>0.1803763508796692</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0800049751996994</v>
+        <v>0.1574937403202057</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2389110624790192</v>
+        <v>0.5103887319564819</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7556138038635254</v>
+        <v>0.617793083190918</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1957540214061737</v>
+        <v>0.2868518531322479</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6436797380447388</v>
+        <v>0.01652605086565018</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1479816883802414</v>
+        <v>0.5740302205085754</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01988052204251289</v>
+        <v>0.5470487475395203</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1082186251878738</v>
+        <v>0.2601596117019653</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02208203636109829</v>
+        <v>0.07959577441215515</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.3240656554698944</v>
+        <v>0.07230019569396973</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.08377262949943542</v>
+        <v>0.2428372204303741</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9690333604812622</v>
+        <v>0.4948166012763977</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.009687241166830063</v>
+        <v>0.1575672477483749</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01579982414841652</v>
+        <v>0.2628649473190308</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1168341860175133</v>
+        <v>0.3214048743247986</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.09506098926067352</v>
+        <v>0.06661102175712585</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3712737858295441</v>
+        <v>0.9195458292961121</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5474609732627869</v>
+        <v>1.249632477760315</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2623293697834015</v>
+        <v>1.138138294219971</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.09602022171020508</v>
+        <v>1.991112232208252</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3579518496990204</v>
+        <v>0.2976811826229095</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9994615912437439</v>
+        <v>0.4573075771331787</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1268192231655121</v>
+        <v>0.5857715606689453</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.5443318486213684</v>
+        <v>0.9346843957901001</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.08769066631793976</v>
+        <v>0.5192588567733765</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.2309640794992447</v>
+        <v>0.7694992423057556</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.09510018676519394</v>
+        <v>1.163066983222961</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1251614987850189</v>
+        <v>0.4214856922626495</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.3814868032932281</v>
+        <v>0.07423466444015503</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.3687498569488525</v>
+        <v>0.09217840433120728</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1709258109331131</v>
+        <v>0.9841927886009216</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5105553865432739</v>
+        <v>0.3196315765380859</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.5174899697303772</v>
+        <v>0.2219478040933609</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.06251442432403564</v>
+        <v>0.7758445143699646</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.04719267413020134</v>
+        <v>0.2787453532218933</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2313196510076523</v>
+        <v>0.2062880545854568</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1394231766462326</v>
+        <v>0.2055332064628601</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1185952946543694</v>
+        <v>0.1763778030872345</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.05025980621576309</v>
+        <v>0.5497092604637146</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1699699759483337</v>
+        <v>0.1446974873542786</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.4572466015815735</v>
+        <v>0.08019041270017624</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0530441626906395</v>
+        <v>0.5409428477287292</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.00141407735645771</v>
+        <v>0.2436705082654953</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1584846377372742</v>
+        <v>0.2810938060283661</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.140625387430191</v>
+        <v>0.811779260635376</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.08278355002403259</v>
+        <v>0.7096276879310608</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1377206891775131</v>
+        <v>0.9394434690475464</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.293957531452179</v>
+        <v>0.2563843727111816</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.8002492785453796</v>
+        <v>0.03041371330618858</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1620868444442749</v>
+        <v>0.185067743062973</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.7203832864761353</v>
+        <v>0.5639301538467407</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.003449310082942247</v>
+        <v>0.3399485051631927</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.07188241928815842</v>
+        <v>0.182120680809021</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05287428572773933</v>
+        <v>0.1010872721672058</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.08657468855381012</v>
+        <v>0.4494546055793762</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.09945283830165863</v>
+        <v>0.3967708349227905</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.2299170643091202</v>
+        <v>0.1621070951223373</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.2631449103355408</v>
+        <v>0.02405977062880993</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.01509472634643316</v>
+        <v>0.2245494276285172</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.3385997414588928</v>
+        <v>0.2361591905355453</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01967936381697655</v>
+        <v>0.08429130166769028</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3497842252254486</v>
+        <v>0.8866283893585205</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7316329479217529</v>
+        <v>0.8578409552574158</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.2913873195648193</v>
+        <v>0.007421731948852539</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.3297200798988342</v>
+        <v>0.1610453128814697</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1323061287403107</v>
+        <v>0.1157934069633484</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.05324964597821236</v>
+        <v>0.132695734500885</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1432936936616898</v>
+        <v>0.1265876740217209</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.2556951344013214</v>
+        <v>0.9408418536186218</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1198092475533485</v>
+        <v>0.1326754838228226</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.1192496567964554</v>
+        <v>0.07702908664941788</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0848318412899971</v>
+        <v>0.1970485746860504</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.09205669909715652</v>
+        <v>0.3117163181304932</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.1066046059131622</v>
+        <v>0.4866935014724731</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2009232938289642</v>
+        <v>0.0407148152589798</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.2610644102096558</v>
+        <v>0.08407965302467346</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.005537769291549921</v>
+        <v>0.1249917149543762</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.4129458367824554</v>
+        <v>0.1173151358962059</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.04798290878534317</v>
+        <v>0.1505435705184937</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.937386155128479</v>
+        <v>0.2030481547117233</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.3707005679607391</v>
+        <v>0.5531318187713623</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.2454803735017776</v>
+        <v>0.7861426472663879</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.2081593126058578</v>
+        <v>1.180347681045532</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1493006348609924</v>
+        <v>1.050788879394531</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.5131489038467407</v>
+        <v>0.2237148284912109</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.006671924144029617</v>
+        <v>1.034668803215027</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.05777017027139664</v>
+        <v>0.7642075419425964</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.1728046983480453</v>
+        <v>0.1478960365056992</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.1399744153022766</v>
+        <v>0.3012723624706268</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2056149840354919</v>
+        <v>0.4779413640499115</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.04108565673232079</v>
+        <v>0.2866464257240295</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.178432822227478</v>
+        <v>0.07296342402696609</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.2616387605667114</v>
+        <v>0.7916410565376282</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1434375792741776</v>
+        <v>0.3140435516834259</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.2605914175510406</v>
+        <v>0.1552179753780365</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.03930835053324699</v>
+        <v>0.007034900598227978</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2384215146303177</v>
+        <v>0.5709549784660339</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.1318199336528778</v>
+        <v>0.108196035027504</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.06260848045349121</v>
+        <v>0.4871655106544495</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.3039578497409821</v>
+        <v>0.1697160303592682</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.005629785358905792</v>
+        <v>0.1865131407976151</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.05593923851847649</v>
+        <v>0.5295000076293945</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.1348409205675125</v>
+        <v>0.2120510935783386</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.1108829006552696</v>
+        <v>0.02525560557842255</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.1351370960474014</v>
+        <v>0.2306064069271088</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.1360027641057968</v>
+        <v>0.1465673893690109</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.3965102434158325</v>
+        <v>0.06484417617321014</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.5054686069488525</v>
+        <v>0.3628560602664948</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.03670414537191391</v>
+        <v>0.5402658581733704</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.1391647607088089</v>
+        <v>0.7694478631019592</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.1122464314103127</v>
+        <v>0.1701382398605347</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.2814443707466125</v>
+        <v>0.1092463806271553</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.009247438050806522</v>
+        <v>0.1393963098526001</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.3930468857288361</v>
+        <v>0.175666332244873</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.007247185800224543</v>
+        <v>0.33444544672966</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.07029639929533005</v>
+        <v>0.09049583971500397</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.04081523790955544</v>
+        <v>0.4917653203010559</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.2530333697795868</v>
+        <v>0.1896164417266846</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.02290386706590652</v>
+        <v>0.4571027457714081</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.2487147748470306</v>
+        <v>0.5203522443771362</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.1015286520123482</v>
+        <v>0.3114476203918457</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001964522525668144</v>
+        <v>0.09983934462070465</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3472002744674683</v>
+        <v>0.3580737113952637</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.1866207420825958</v>
+        <v>0.2235505729913712</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.1122250407934189</v>
+        <v>0.1030719429254532</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.08189007639884949</v>
+        <v>0.2386893332004547</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.09918148815631866</v>
+        <v>0.4247318506240845</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.1724430769681931</v>
+        <v>0.4999575614929199</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.3253656029701233</v>
+        <v>0.05597299337387085</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.2655007839202881</v>
+        <v>0.1155722588300705</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.02393357455730438</v>
+        <v>0.1135871484875679</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.3974605202674866</v>
+        <v>0.2208243161439896</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.02908674813807011</v>
+        <v>0.2058768719434738</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.005816195160150528</v>
+        <v>0.1478898525238037</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01075675524771214</v>
+        <v>0.2272894084453583</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.2894367575645447</v>
+        <v>0.1643780022859573</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.176125168800354</v>
+        <v>0.1628712713718414</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.09306842088699341</v>
+        <v>0.6064555644989014</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.05497388541698456</v>
+        <v>0.2312965840101242</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.02462893724441528</v>
+        <v>0.3367328643798828</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.05857723578810692</v>
+        <v>0.2389409244060516</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.03571556508541107</v>
+        <v>0.4121403992176056</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.2697789072990417</v>
+        <v>0.264152467250824</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0227602981030941</v>
+        <v>0.5018963813781738</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.08251036703586578</v>
+        <v>0.27840656042099</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.1555320918560028</v>
+        <v>0.1883719861507416</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.3412463068962097</v>
+        <v>0.06375869363546371</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.4768641591072083</v>
+        <v>0.1737275272607803</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.2741170227527618</v>
+        <v>0.06049046665430069</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.3180671334266663</v>
+        <v>0.16127710044384</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.01802449114620686</v>
+        <v>0.2112688720226288</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.1999397277832031</v>
+        <v>0.09874952584505081</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.05228278040885925</v>
+        <v>0.5308842062950134</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.06586457043886185</v>
+        <v>0.09150159358978271</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.02693425863981247</v>
+        <v>0.0601845309138298</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.1156231015920639</v>
+        <v>0.7628375887870789</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.1824050545692444</v>
+        <v>0.4424748122692108</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.09615815430879593</v>
+        <v>0.1212267056107521</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.006501287221908569</v>
+        <v>0.4090868830680847</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1084309071302414</v>
+        <v>0.01632308959960938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002901356900110841</v>
+        <v>0.000134975925902836</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01012194342911243</v>
+        <v>0.001169296680018306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01813768409192562</v>
+        <v>6.457693962147459e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02460787631571293</v>
+        <v>0.0004805390199180692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04221003502607346</v>
+        <v>0.0004741051816381514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005325092934072018</v>
+        <v>0.0001846628147177398</v>
       </c>
       <c r="G5" t="n">
-        <v>5.38090243935585e-05</v>
+        <v>0.000168952188687399</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05937224999070168</v>
+        <v>0.0001741028245305642</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01463452540338039</v>
+        <v>7.514539174735546e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002117945114150643</v>
+        <v>0.0001820289908209816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006178636103868484</v>
+        <v>0.0009398726397193968</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01830796152353287</v>
+        <v>0.0002065278385998681</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01708180829882622</v>
+        <v>0.0003286971477791667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04996377602219582</v>
+        <v>0.0004681921564042568</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007009031716734171</v>
+        <v>0.0002219915331806988</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01531407609581947</v>
+        <v>0.0001085498370230198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06031208112835884</v>
+        <v>0.0001271645596716553</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006449723150581121</v>
+        <v>3.988798926002346e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002516517415642738</v>
+        <v>3.090728932875209e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004169491585344076</v>
+        <v>0.000173331776750274</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005584739148616791</v>
+        <v>0.00015615152369719</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00781417079269886</v>
+        <v>5.557214171858504e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02112208679318428</v>
+        <v>9.460966975893825e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001195100252516568</v>
+        <v>0.0001341864408459514</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.002230397891253233</v>
+        <v>6.412298534996808e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01903626695275307</v>
+        <v>0.0001441179192624986</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0002146044571418315</v>
+        <v>2.467100057401694e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.007583516649901867</v>
+        <v>1.339170557912439e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.004318202845752239</v>
+        <v>0.0001357642177026719</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.004695679061114788</v>
+        <v>7.944872777443379e-07</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01266566570848227</v>
+        <v>0.0001480068603996187</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.000886219902895391</v>
+        <v>6.670714356005192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0008698140736669302</v>
+        <v>1.170877658296376e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.01692610047757626</v>
+        <v>0.0001000040210783482</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.008574117906391621</v>
+        <v>0.0001201314444188029</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.006691631395369768</v>
+        <v>2.54824772127904e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.006221717223525047</v>
+        <v>4.310048097977415e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.01439308747649193</v>
+        <v>0.0002201111637987196</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.007992866449058056</v>
+        <v>0.0001037733163684607</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0005918380338698626</v>
+        <v>7.355349225690588e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01055071596056223</v>
+        <v>1.484697259002132e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001276677125133574</v>
+        <v>0.0001655172964092344</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.007628933992236853</v>
+        <v>2.887119626393542e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.003715248312801123</v>
+        <v>0.0001755966513883322</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002508879406377673</v>
+        <v>1.841613266151398e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.008453904651105404</v>
+        <v>8.681124745635316e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.006830541417002678</v>
+        <v>0.0008442872785963118</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.007557986304163933</v>
+        <v>2.036803198279813e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.008275039494037628</v>
+        <v>5.330643034540117e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02631406672298908</v>
+        <v>1.085100848285947e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.002713780617341399</v>
+        <v>3.855365503113717e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01448231004178524</v>
+        <v>9.409457561559975e-06</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0246253740042448</v>
+        <v>0.0001825815706979483</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.002473748521879315</v>
+        <v>0.0001682983420323581</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.007939566858112812</v>
+        <v>0.0001153871344286017</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.006115785799920559</v>
+        <v>0.0001540063822176307</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.003100677859038115</v>
+        <v>5.123583832755685e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01590718328952789</v>
+        <v>0.0001604172284714878</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01214534323662519</v>
+        <v>0.0003906289348378778</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.003592476481571794</v>
+        <v>0.0001709603529889137</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008545165881514549</v>
+        <v>0.0001614269713172689</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01118280552327633</v>
+        <v>0.0001429333933629096</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.003375188680365682</v>
+        <v>2.219469388364814e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.004631730262190104</v>
+        <v>0.0001208216490340419</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0007749874494038522</v>
+        <v>0.0001588209997862577</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.008072453550994396</v>
+        <v>5.809410504298285e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.00500108627602458</v>
+        <v>2.438869705656543e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.005918615963310003</v>
+        <v>7.035754606476985e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001999876229092479</v>
+        <v>0.0001825862855184823</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.007718487642705441</v>
+        <v>4.482319855014794e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.008712832815945148</v>
+        <v>6.788761675124988e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.00230722688138485</v>
+        <v>7.45244906283915e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0218180101364851</v>
+        <v>0.0001406157098244876</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.001423694426193833</v>
+        <v>0.0005670908140018582</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001577451359480619</v>
+        <v>0.0001241172722075135</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001672825892455876</v>
+        <v>5.119352863403037e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01677269861102104</v>
+        <v>1.373851500829915e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.002187734469771385</v>
+        <v>0.000164911150932312</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01545826625078917</v>
+        <v>3.722274414030835e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02791170217096806</v>
+        <v>8.029208402149379e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.003918305039405823</v>
+        <v>2.782683804980479e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.004570788703858852</v>
+        <v>2.940093872894067e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.004887597635388374</v>
+        <v>0.0001755105768097565</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.006210380233824253</v>
+        <v>6.840914466010872e-07</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00301268370822072</v>
+        <v>0.000110694469185546</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01154374703764915</v>
+        <v>5.328229235601611e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.00131591537501663</v>
+        <v>3.600634954636917e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.002806377597153187</v>
+        <v>5.765129753854126e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01135965343564749</v>
+        <v>1.491357943450566e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001513330615125597</v>
+        <v>2.059591679426376e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.004202551208436489</v>
+        <v>8.273528510471806e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01169940829277039</v>
+        <v>0.000100065088190604</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.007705317344516516</v>
+        <v>2.279504587932024e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.005110328085720539</v>
+        <v>7.283774903044105e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.02080592140555382</v>
+        <v>0.0002093275543302298</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02018528804183006</v>
+        <v>8.396947669098154e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0003161674248985946</v>
+        <v>0.0001778397418092936</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0007812861003912985</v>
+        <v>0.0002551835495978594</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.004168395418673754</v>
+        <v>1.200926635647193e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002961002755910158</v>
+        <v>3.930236562155187e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.005522725638002157</v>
+        <v>0.0001411387929692864</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.006102801766246557</v>
+        <v>4.996625648345798e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.004367807414382696</v>
+        <v>0.0001450872950954363</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01230348087847233</v>
+        <v>5.101513124827761e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.001982428366318345</v>
+        <v>8.38615742395632e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.001545866951346397</v>
+        <v>3.052895772270858e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01420639548450708</v>
+        <v>1.160920055554016e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0006384477601386607</v>
+        <v>2.32359907386126e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.01254023984074593</v>
+        <v>1.479252750868909e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01863816380500793</v>
+        <v>0.000327020650729537</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.009717176668345928</v>
+        <v>2.176747693738434e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.00263572484254837</v>
+        <v>0.0004016327438876033</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0135662630200386</v>
+        <v>8.224595512729138e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.006241274997591972</v>
+        <v>4.147856452618726e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002801759401336312</v>
+        <v>0.0001618675596546382</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0103051858022809</v>
+        <v>3.789401307585649e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.001601811847649515</v>
+        <v>2.089946065098047e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001969638280570507</v>
+        <v>9.51512047322467e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.005023517180234194</v>
+        <v>0.0001001623677439056</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.00585394399240613</v>
+        <v>1.492395495006349e-05</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0009884129976853728</v>
+        <v>0.0001139059022534639</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01367542054504156</v>
+        <v>1.021493517328054e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.006088700145483017</v>
+        <v>0.0001109757067752071</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.009622874669730663</v>
+        <v>4.431336492416449e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001082479953765869</v>
+        <v>6.418090924853459e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0004362442414276302</v>
+        <v>1.074218380381353e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.004906867165118456</v>
+        <v>1.041053292283323e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0142908850684762</v>
+        <v>6.646932888543233e-07</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.002774688880890608</v>
+        <v>4.675487434724346e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001843449892476201</v>
+        <v>3.577625102479942e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.00151582236867398</v>
+        <v>0.0001322155439993367</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.008677611127495766</v>
+        <v>0.0001809417735785246</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.00170056358911097</v>
+        <v>3.037288479390554e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002032787306234241</v>
+        <v>1.258606607734691e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001537230797111988</v>
+        <v>2.165252226404846e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0006787771126255393</v>
+        <v>1.259380042029079e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001788891036994755</v>
+        <v>0.0001402983180014417</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.007151618134230375</v>
+        <v>3.52295974153094e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.008358092978596687</v>
+        <v>5.665322532877326e-06</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0009050028747878969</v>
+        <v>0.0001309881190536544</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.004060213919728994</v>
+        <v>6.219675924512558e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.002762702759355307</v>
+        <v>5.217042053118348e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.01935816183686256</v>
+        <v>1.747319402056746e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.004006918054074049</v>
+        <v>2.177693750127219e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.005102429538965225</v>
+        <v>1.636263186810538e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.006707594729959965</v>
+        <v>8.744371734792367e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.005888886284083128</v>
+        <v>0.000129691994516179</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001422623870894313</v>
+        <v>0.0002020212996285409</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0151138911023736</v>
+        <v>0.0001104876791941933</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003369444981217384</v>
+        <v>0.0003064048360101879</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0014686428476125</v>
+        <v>2.878966552088968e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003819592297077179</v>
+        <v>6.107173976488411e-05</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002096568234264851</v>
+        <v>6.492683314718306e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.003024025820195675</v>
+        <v>3.341247793287039e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.006306332070380449</v>
+        <v>0.000147521699545905</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.006150719709694386</v>
+        <v>2.168940045521595e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.003767218440771103</v>
+        <v>0.0001312624372076243</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01365421433001757</v>
+        <v>3.074762207688764e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.003950733691453934</v>
+        <v>7.686061871936545e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.003829940687865019</v>
+        <v>6.415694952011108e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01399638131260872</v>
+        <v>4.395878022478428e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>9.572141425451264e-05</v>
+        <v>1.742992753861472e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.003439963329583406</v>
+        <v>6.026626238053723e-07</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.005378749221563339</v>
+        <v>3.756717342184857e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0005705661606043577</v>
+        <v>8.939233521232381e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.00610717199742794</v>
+        <v>9.618901822250336e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01090652123093605</v>
+        <v>7.325676415348426e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.004900199361145496</v>
+        <v>9.225863323081285e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.00786746758967638</v>
+        <v>1.932707527885213e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01100745610892773</v>
+        <v>4.613328201230615e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.00440065935254097</v>
+        <v>1.157291262643412e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01855751499533653</v>
+        <v>7.684104639338329e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.01087927538901567</v>
+        <v>0.0002310386043973267</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.008056197315454483</v>
+        <v>0.0001658609980950132</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.004204557277262211</v>
+        <v>0.0001002455974230543</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.005150390323251486</v>
+        <v>0.0001051799190463498</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0005001176032237709</v>
+        <v>0.0001104039401980117</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.005728588905185461</v>
+        <v>2.172698259528261e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.008796903304755688</v>
+        <v>2.636390854604542e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001914829830639064</v>
+        <v>9.756186045706272e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.008502541109919548</v>
+        <v>1.420334046997596e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.003089013509452343</v>
+        <v>0.0001499414356658235</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0002578087151050568</v>
+        <v>3.444855246925727e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01255546137690544</v>
+        <v>8.496813097735867e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001512338989414275</v>
+        <v>0.0001880301133496687</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01190553233027458</v>
+        <v>0.0001893806038424373</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.01486097555607557</v>
+        <v>0.0002756966860033572</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.003451763885095716</v>
+        <v>1.892889849841595e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0003785672888625413</v>
+        <v>5.566704203374684e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1709 +3849,1709 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02797800302505493</v>
+        <v>0.07744057476520538</v>
       </c>
       <c r="B7" t="n">
-        <v>0.498119056224823</v>
+        <v>0.001750498078763485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02258455753326416</v>
+        <v>0.003103023627772927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01684405654668808</v>
+        <v>0.01079861260950565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2695738971233368</v>
+        <v>0.01131902262568474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7834249138832092</v>
+        <v>0.008486251346766949</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06470844149589539</v>
+        <v>0.02274340763688087</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1853207498788834</v>
+        <v>0.004670307040214539</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1208265051245689</v>
+        <v>0.005346452351659536</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05906005948781967</v>
+        <v>0.06948216259479523</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5069493055343628</v>
+        <v>0.001145555172115564</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03374544158577919</v>
+        <v>0.01585313864052296</v>
       </c>
       <c r="M7" t="n">
-        <v>0.109375849366188</v>
+        <v>0.002285884227603674</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1947164684534073</v>
+        <v>0.002501681912690401</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7421664595603943</v>
+        <v>0.0004364389460533857</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03485553339123726</v>
+        <v>0.02605060487985611</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06087673455476761</v>
+        <v>0.01507510337978601</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1764598190784454</v>
+        <v>0.003750276984646916</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02926961332559586</v>
+        <v>0.006280332338064909</v>
       </c>
       <c r="T7" t="n">
-        <v>0.003277909709140658</v>
+        <v>0.01114318706095219</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01069171167910099</v>
+        <v>0.001139320316724479</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04364067316055298</v>
+        <v>0.006595090962946415</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0816345140337944</v>
+        <v>0.009805602021515369</v>
       </c>
       <c r="X7" t="n">
-        <v>0.163506418466568</v>
+        <v>0.0001444449881091714</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0440954864025116</v>
+        <v>0.01137393154203892</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1205848231911659</v>
+        <v>0.006486105266958475</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.003816144540905952</v>
+        <v>0.004524880088865757</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03931190446019173</v>
+        <v>0.006843701004981995</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03648127615451813</v>
+        <v>0.006040404085069895</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02814905345439911</v>
+        <v>0.02052546106278896</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.09235242009162903</v>
+        <v>0.003984775859862566</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1610427051782608</v>
+        <v>0.007763304281979799</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0721089243888855</v>
+        <v>0.003573291236534715</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.006701156497001648</v>
+        <v>0.005160497035831213</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.09307992458343506</v>
+        <v>0.002009340561926365</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01588831655681133</v>
+        <v>0.002269106451421976</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.02826879359781742</v>
+        <v>0.007242766208946705</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.09080255031585693</v>
+        <v>0.005588162690401077</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0347166433930397</v>
+        <v>0.004296350758522749</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02372410148382187</v>
+        <v>0.002422660123556852</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0145025122910738</v>
+        <v>0.01513243839144707</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.127489373087883</v>
+        <v>0.0003858923155348748</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.05103939399123192</v>
+        <v>0.0006044374313205481</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.06286129355430603</v>
+        <v>0.007223773747682571</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0521182157099247</v>
+        <v>0.000201015907805413</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.02417100220918655</v>
+        <v>0.04270730540156364</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2362354099750519</v>
+        <v>0.0315888300538063</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0260617770254612</v>
+        <v>0.003535868134349585</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0686308816075325</v>
+        <v>0.0003848196938633919</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001571387052536011</v>
+        <v>0.007396963890641928</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.389156848192215</v>
+        <v>0.006556497886776924</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.03597984090447426</v>
+        <v>0.008479422889649868</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.05359763652086258</v>
+        <v>0.00773783540353179</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.05318637937307358</v>
+        <v>0.004158496856689453</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1243531927466393</v>
+        <v>0.02436737716197968</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1037611961364746</v>
+        <v>0.02263866178691387</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.02450527437031269</v>
+        <v>0.008891161531209946</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.06104487180709839</v>
+        <v>0.005758426152169704</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.02841823175549507</v>
+        <v>0.003434980753809214</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.08770675212144852</v>
+        <v>0.02209475263953209</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0333852507174015</v>
+        <v>0.007537413388490677</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.163144588470459</v>
+        <v>0.01659246161580086</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.03035392239689827</v>
+        <v>0.01271465793251991</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0201953612267971</v>
+        <v>0.002766485093161464</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.05385861918330193</v>
+        <v>0.009956434369087219</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04099705442786217</v>
+        <v>0.005148863419890404</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0181151982396841</v>
+        <v>0.0152740478515625</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1212250217795372</v>
+        <v>0.01164852548390627</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1328397989273071</v>
+        <v>0.006663136184215546</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01491852477192879</v>
+        <v>0.005382535979151726</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.09956200420856476</v>
+        <v>0.007834156975150108</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.09985700249671936</v>
+        <v>0.01229752413928509</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.02355454303324223</v>
+        <v>0.02085602283477783</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1352074295282364</v>
+        <v>0.004332935437560081</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01142113283276558</v>
+        <v>0.002471192739903927</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06627325713634491</v>
+        <v>0.009396154433488846</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.04974949359893799</v>
+        <v>0.001616702880710363</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.2662355899810791</v>
+        <v>0.0007936221081763506</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.003943648189306259</v>
+        <v>0.003366127610206604</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02479596436023712</v>
+        <v>0.006723919883370399</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.1134347766637802</v>
+        <v>0.008019658736884594</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.010957021266222</v>
+        <v>0.01419812813401222</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.1126547455787659</v>
+        <v>0.009522264823317528</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0114436037838459</v>
+        <v>0.003368611447513103</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02906616777181625</v>
+        <v>0.003878787159919739</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0709250420331955</v>
+        <v>0.004403517115861177</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.1284588873386383</v>
+        <v>0.003224081359803677</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.007482287473976612</v>
+        <v>0.007155274972319603</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01382174529135227</v>
+        <v>0.002288601826876402</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01722850650548935</v>
+        <v>0.00313499802723527</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.02982758544385433</v>
+        <v>0.005014601163566113</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.01565591990947723</v>
+        <v>0.02097058296203613</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.05857037380337715</v>
+        <v>0.01796886138617992</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.01804310269653797</v>
+        <v>0.001928013283759356</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.02591279894113541</v>
+        <v>0.01754595525562763</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.2018507122993469</v>
+        <v>0.007789679802954197</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.00811728835105896</v>
+        <v>0.004165950696915388</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.07114876806735992</v>
+        <v>0.002186296507716179</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.04424974694848061</v>
+        <v>0.01356429234147072</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.02851490303874016</v>
+        <v>0.01307232026010752</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.1046479344367981</v>
+        <v>0.006698512006551027</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.005152957979589701</v>
+        <v>0.003095303429290652</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.02813526801764965</v>
+        <v>0.004603257868438959</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.05595837906002998</v>
+        <v>0.003433426143601537</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.1135744601488113</v>
+        <v>0.005662965122610331</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.007288869936019182</v>
+        <v>0.004385882988572121</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.03613510355353355</v>
+        <v>0.0004843319184146821</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.01389689184725285</v>
+        <v>0.003391214646399021</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1409448385238647</v>
+        <v>0.007287298329174519</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.05400253459811211</v>
+        <v>0.009906402789056301</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.1228878200054169</v>
+        <v>0.005137183237820864</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.01369366608560085</v>
+        <v>0.002840864006429911</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.1122772023081779</v>
+        <v>0.01150089409202337</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.01031753793358803</v>
+        <v>0.02607228606939316</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.1571998596191406</v>
+        <v>0.001539813121780753</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.09466210007667542</v>
+        <v>0.01348375901579857</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.1140253320336342</v>
+        <v>0.03305833041667938</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.04014783725142479</v>
+        <v>0.0006795368972234428</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.05513124912977219</v>
+        <v>0.007492075674235821</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.03080512955784798</v>
+        <v>0.007836473174393177</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01729656755924225</v>
+        <v>0.008429006673395634</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.07691696286201477</v>
+        <v>0.02404932305216789</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.03569089621305466</v>
+        <v>0.006942675448954105</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.004868218209594488</v>
+        <v>0.01539970375597477</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.005551479756832123</v>
+        <v>0.002787366509437561</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01326649263501167</v>
+        <v>0.01343209389597178</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02227065898478031</v>
+        <v>0.008624029345810413</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.03043649159371853</v>
+        <v>0.001157411257736385</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.03905530273914337</v>
+        <v>0.005580487661063671</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01768322288990021</v>
+        <v>0.01196925900876522</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.002078114077448845</v>
+        <v>0.01169390976428986</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.02841239236295223</v>
+        <v>0.00583496131002903</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.01041537523269653</v>
+        <v>0.005788227543234825</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.004233416169881821</v>
+        <v>0.004872850608080626</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.04735300689935684</v>
+        <v>0.0182249341160059</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.01801153272390366</v>
+        <v>0.01776276528835297</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.1573172211647034</v>
+        <v>0.005676521919667721</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.08933831006288528</v>
+        <v>0.002810934325680137</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.01717337965965271</v>
+        <v>0.01598751544952393</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1874317526817322</v>
+        <v>0.008588695898652077</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.1443379670381546</v>
+        <v>0.006013041827827692</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01527520921081305</v>
+        <v>0.007809569127857685</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.005814006552100182</v>
+        <v>0.00462310342118144</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.04357892274856567</v>
+        <v>0.001853960333392024</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.03262733668088913</v>
+        <v>0.005950179882347584</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001385120209306479</v>
+        <v>0.01225395686924458</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.07098628580570221</v>
+        <v>0.01212204899638891</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.006629409268498421</v>
+        <v>0.003183121560141444</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.08703388273715973</v>
+        <v>0.003811453469097614</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.1128554940223694</v>
+        <v>0.0100151039659977</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.02023945190012455</v>
+        <v>0.003071368206292391</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.06351403892040253</v>
+        <v>0.007344236131757498</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.04321954026818275</v>
+        <v>0.007228782400488853</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.03137803822755814</v>
+        <v>0.01085317507386208</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.1166919767856598</v>
+        <v>0.009803987108170986</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.005295698065310717</v>
+        <v>0.004391688853502274</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01503793988376856</v>
+        <v>0.003487026086077094</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.07734064757823944</v>
+        <v>0.004672637209296227</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.1279803812503815</v>
+        <v>0.004244486335664988</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.009717321954667568</v>
+        <v>0.008243697695434093</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.03712911531329155</v>
+        <v>0.003211827017366886</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.009737327694892883</v>
+        <v>0.003245438681915402</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.02381733246147633</v>
+        <v>0.002783140167593956</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.09043297916650772</v>
+        <v>0.003727860050275922</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.1298015266656876</v>
+        <v>0.006984618026763201</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.05777199193835258</v>
+        <v>0.005928817205131054</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.09369614720344543</v>
+        <v>0.001347845653072</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.1003951877355576</v>
+        <v>0.0005670972168445587</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.03197077289223671</v>
+        <v>0.005222519394010305</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.01335772406309843</v>
+        <v>0.006103234365582466</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.05915625020861626</v>
+        <v>0.005027525592595339</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.04707071930170059</v>
+        <v>0.0209779180586338</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.1190515458583832</v>
+        <v>0.01405827328562737</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.07493653893470764</v>
+        <v>0.005890094675123692</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.2224561870098114</v>
+        <v>0.01036923192441463</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.06896088272333145</v>
+        <v>0.01314874738454819</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.2513690888881683</v>
+        <v>0.006139263510704041</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.06401432305574417</v>
+        <v>0.0123991034924984</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.05769474804401398</v>
+        <v>0.01130437478423119</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.04324965178966522</v>
+        <v>0.01694887317717075</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.1321162432432175</v>
+        <v>0.007046724203974009</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.04370024800300598</v>
+        <v>0.01645856723189354</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01894428580999374</v>
+        <v>0.003289801999926567</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.02625196427106857</v>
+        <v>0.005840576253831387</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.02302436903119087</v>
+        <v>0.02344517782330513</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.03062058240175247</v>
+        <v>0.02218903042376041</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.00425955094397068</v>
+        <v>0.009521422907710075</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.1652576923370361</v>
+        <v>0.004788000136613846</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0005687159718945622</v>
+        <v>0.001392570440657437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02941653318703175</v>
+        <v>0.0008696503937244415</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03989694267511368</v>
+        <v>0.528306782245636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01109269168227911</v>
+        <v>0.05551378428936005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07663626968860626</v>
+        <v>0.3076656460762024</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05045675113797188</v>
+        <v>0.3617940843105316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.166682168841362</v>
+        <v>0.4469341635704041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001923826755955815</v>
+        <v>0.0499473437666893</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1753483265638351</v>
+        <v>0.198865994811058</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01209465973079205</v>
+        <v>0.07566957920789719</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03867459669709206</v>
+        <v>0.02648593299090862</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03261344134807587</v>
+        <v>0.4330884516239166</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004121528472751379</v>
+        <v>0.01454247534275055</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0283537283539772</v>
+        <v>0.1891405880451202</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1041024103760719</v>
+        <v>0.1661524772644043</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1259713023900986</v>
+        <v>0.396282970905304</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01363801024854183</v>
+        <v>0.1014065146446228</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2137377560138702</v>
+        <v>0.10586878657341</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008323654532432556</v>
+        <v>0.07953550666570663</v>
       </c>
       <c r="S8" t="n">
-        <v>0.008349400945007801</v>
+        <v>0.0331309586763382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.009019635617733002</v>
+        <v>0.06169885396957397</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0002798020141199231</v>
+        <v>0.01640621572732925</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01234864257276058</v>
+        <v>0.09762176871299744</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05375488847494125</v>
+        <v>0.09835636615753174</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01884897612035275</v>
+        <v>0.03938433527946472</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01379052270203829</v>
+        <v>0.04451660811901093</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04738903045654297</v>
+        <v>0.09260588884353638</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01202318351715803</v>
+        <v>0.0676063597202301</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01008440647274256</v>
+        <v>0.05524386093020439</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0234321765601635</v>
+        <v>0.04733943939208984</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00288581452332437</v>
+        <v>0.04650329053401947</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02624564617872238</v>
+        <v>0.04322537034749985</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02683402970433235</v>
+        <v>0.08274944871664047</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.006270023062825203</v>
+        <v>0.01219549495726824</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.06141852587461472</v>
+        <v>0.03041552379727364</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.003523627296090126</v>
+        <v>0.03821269795298576</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01223333273082972</v>
+        <v>0.07303379476070404</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01932696811854839</v>
+        <v>0.03612442314624786</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.009122423827648163</v>
+        <v>0.1372423022985458</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.03422205150127411</v>
+        <v>0.003653431311249733</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01936622150242329</v>
+        <v>0.02385967969894409</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.08032432943582535</v>
+        <v>0.06864762306213379</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0146033177152276</v>
+        <v>0.09452451765537262</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.001594029366970062</v>
+        <v>0.006805512122809887</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.007132217288017273</v>
+        <v>0.07578933238983154</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0296926274895668</v>
+        <v>0.09505118429660797</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.03203641623258591</v>
+        <v>0.0541846752166748</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.04543950781226158</v>
+        <v>0.3701624274253845</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.02094381675124168</v>
+        <v>0.0597761943936348</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.003477011807262897</v>
+        <v>0.0452546663582325</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02336915768682957</v>
+        <v>0.2188191413879395</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.07064221054315567</v>
+        <v>0.3308639228343964</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.02065662480890751</v>
+        <v>0.08041498810052872</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.07102229446172714</v>
+        <v>0.0263349711894989</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.004676100332289934</v>
+        <v>0.1461688131093979</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.01609108038246632</v>
+        <v>0.01215473562479019</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.03526214137673378</v>
+        <v>0.05524229630827904</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.005225760862231255</v>
+        <v>0.09008819609880447</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.06201887875795364</v>
+        <v>0.05347557738423347</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.02834008820354939</v>
+        <v>0.1688146889209747</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.025205347687006</v>
+        <v>0.05348317325115204</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.01508836913853884</v>
+        <v>0.09468553215265274</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.07039704918861389</v>
+        <v>0.06951480358839035</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0150897204875946</v>
+        <v>0.09092482924461365</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.004677535034716129</v>
+        <v>0.02547033503651619</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.02051994204521179</v>
+        <v>0.1629549562931061</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01268460415303707</v>
+        <v>0.04788917303085327</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.001901411567814648</v>
+        <v>0.06029532104730606</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01285805180668831</v>
+        <v>0.03477205336093903</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.01418500859290361</v>
+        <v>0.03342181816697121</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.05757568776607513</v>
+        <v>0.04674430191516876</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01218311116099358</v>
+        <v>0.03896076232194901</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.02615920454263687</v>
+        <v>0.0336109846830368</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.002551693469285965</v>
+        <v>0.06877872347831726</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.002679858356714249</v>
+        <v>0.2550374269485474</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.006435188464820385</v>
+        <v>0.09618766605854034</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.03881308808922768</v>
+        <v>0.04826940596103668</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.009674357250332832</v>
+        <v>0.1117424219846725</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.06681228429079056</v>
+        <v>0.105469286441803</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.007338161580264568</v>
+        <v>0.007211178541183472</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.05230646952986717</v>
+        <v>0.03264182060956955</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01074350997805595</v>
+        <v>0.1122452542185783</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.008659161627292633</v>
+        <v>0.02105226181447506</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.004752661567181349</v>
+        <v>0.06198349967598915</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.006841391324996948</v>
+        <v>0.04097885638475418</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0208323560655117</v>
+        <v>0.08689803630113602</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.02000723406672478</v>
+        <v>0.03338032588362694</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0217046681791544</v>
+        <v>0.07753171026706696</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0005034048808738589</v>
+        <v>0.04310169443488121</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.02729741670191288</v>
+        <v>0.02866490371525288</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.002185461577028036</v>
+        <v>0.05564510449767113</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0437699519097805</v>
+        <v>0.06209386885166168</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.0456194095313549</v>
+        <v>0.03943768516182899</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.007419729605317116</v>
+        <v>0.03271836042404175</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.002538658678531647</v>
+        <v>0.02836213260889053</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0134930144995451</v>
+        <v>0.05634938925504684</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.04250196740031242</v>
+        <v>0.005723053589463234</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0166361890733242</v>
+        <v>0.1414728611707687</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.02211127430200577</v>
+        <v>0.1517015397548676</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.03368696197867393</v>
+        <v>0.08993980288505554</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.01251279562711716</v>
+        <v>0.01286565326154232</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.004141862504184246</v>
+        <v>0.04798934236168861</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.009561234153807163</v>
+        <v>0.04720864817500114</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.01692740246653557</v>
+        <v>0.1108773052692413</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.01572325453162193</v>
+        <v>0.03652673214673996</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.01938097551465034</v>
+        <v>0.1022475138306618</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0003839402925223112</v>
+        <v>0.02837708406150341</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.03823476657271385</v>
+        <v>0.05582153797149658</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.01160133257508278</v>
+        <v>0.02237647958099842</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.09735632687807083</v>
+        <v>0.05214576423168182</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.07921937108039856</v>
+        <v>0.06019322574138641</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.006977643817663193</v>
+        <v>0.07822606712579727</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.02056422084569931</v>
+        <v>0.2295710742473602</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.02563834190368652</v>
+        <v>0.2078958451747894</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.02554388530552387</v>
+        <v>0.1166185960173607</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.01689529605209827</v>
+        <v>0.09541027992963791</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0160625297576189</v>
+        <v>0.1500841081142426</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.03378118574619293</v>
+        <v>0.2017347663640976</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.02316489815711975</v>
+        <v>0.001747114583849907</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.03202536329627037</v>
+        <v>0.006396442651748657</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0128546878695488</v>
+        <v>0.02227788046002388</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.008012433536350727</v>
+        <v>0.04665174335241318</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.004019623622298241</v>
+        <v>0.02032922580838203</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0119530837982893</v>
+        <v>0.0833977684378624</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.02979232370853424</v>
+        <v>0.05854524672031403</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.02333787456154823</v>
+        <v>0.04441075399518013</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.01407242566347122</v>
+        <v>0.08344736695289612</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01161446329206228</v>
+        <v>0.02461480163037777</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.02701903134584427</v>
+        <v>0.01356237009167671</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.01574009098112583</v>
+        <v>0.09687430411577225</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.01651106402277946</v>
+        <v>0.01020180061459541</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.03496619313955307</v>
+        <v>0.05344356223940849</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.003889077575877309</v>
+        <v>0.04388916492462158</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.007800325751304626</v>
+        <v>0.001173851080238819</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.009385387413203716</v>
+        <v>0.05601614713668823</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0004617823287844658</v>
+        <v>0.04944528266787529</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.04153396189212799</v>
+        <v>0.02708833105862141</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.006306162104010582</v>
+        <v>0.05746981501579285</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.00757045391947031</v>
+        <v>0.05961151048541069</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.03162582591176033</v>
+        <v>0.04337044805288315</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.004792754538357258</v>
+        <v>0.07790634781122208</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01229846011847258</v>
+        <v>0.07904776185750961</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.003846485400572419</v>
+        <v>0.04241523146629333</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.01845519989728928</v>
+        <v>0.03102589026093483</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.01666066236793995</v>
+        <v>0.00512464577332139</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.005722961388528347</v>
+        <v>0.00547365564852953</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.01115456875413656</v>
+        <v>0.02490739896893501</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.00127372844144702</v>
+        <v>0.06255343556404114</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.03193847090005875</v>
+        <v>0.06827088445425034</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.05568122863769531</v>
+        <v>0.04817049577832222</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0171509888023138</v>
+        <v>0.04953260347247124</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.01475082151591778</v>
+        <v>0.03158566728234291</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0181150883436203</v>
+        <v>0.1669638156890869</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.01096381712704897</v>
+        <v>0.01064282283186913</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01185322739183903</v>
+        <v>0.009984001517295837</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0006369284819811583</v>
+        <v>0.03684889525175095</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.005668590776622295</v>
+        <v>0.03943910449743271</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.02263398095965385</v>
+        <v>0.1058856993913651</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.02413229644298553</v>
+        <v>0.02235129661858082</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.01925830915570259</v>
+        <v>0.07726873457431793</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.004467997699975967</v>
+        <v>0.06163612008094788</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.04236957803368568</v>
+        <v>0.03305563703179359</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.01496561337262392</v>
+        <v>0.06359580159187317</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.005696031264960766</v>
+        <v>0.006353823468089104</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.002130504231899977</v>
+        <v>0.08355574309825897</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.01336326543241739</v>
+        <v>0.05729128420352936</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.003618185874074697</v>
+        <v>0.1193497478961945</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.03518973663449287</v>
+        <v>0.02112161181867123</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.02406447939574718</v>
+        <v>0.0434444397687912</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.02000655978918076</v>
+        <v>0.002014588564634323</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.006998340133577585</v>
+        <v>0.1019915416836739</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.01890610530972481</v>
+        <v>0.03221433982253075</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.04925531148910522</v>
+        <v>0.03585304692387581</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01442004553973675</v>
+        <v>0.0722949355840683</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01177444215863943</v>
+        <v>0.07729284465312958</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01435121335089207</v>
+        <v>0.1591790467500687</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.001737503334879875</v>
+        <v>0.0108284605666995</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.04335431754589081</v>
+        <v>0.02606704272329807</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.02509332075715065</v>
+        <v>0.06129408627748489</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.03348618373274803</v>
+        <v>0.09162458777427673</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.01124389097094536</v>
+        <v>0.002145568840205669</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.00640884879976511</v>
+        <v>0.1024191677570343</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.002816107589751482</v>
+        <v>0.05698509514331818</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.008451171219348907</v>
+        <v>0.007461927831172943</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.01111484877765179</v>
+        <v>0.05602432414889336</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.001375974155962467</v>
+        <v>0.1005593091249466</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.02865961566567421</v>
+        <v>0.07078174501657486</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02105703391134739</v>
+        <v>0.3292535841464996</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.004098118282854557</v>
+        <v>0.0574549175798893</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.004459718242287636</v>
+        <v>0.0185091607272625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0007959228823892772</v>
+        <v>0.01372757740318775</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004813246778212488</v>
+        <v>0.02193978801369667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002017809310927987</v>
+        <v>0.04158120974898338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001628577447263524</v>
+        <v>0.04729858785867691</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0024205157533288</v>
+        <v>0.02833376452326775</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002621477236971259</v>
+        <v>0.008490134961903095</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003427221206948161</v>
+        <v>0.01928753219544888</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002987576008308679</v>
+        <v>0.003960380796343088</v>
       </c>
       <c r="I9" t="n">
-        <v>5.171848169993609e-05</v>
+        <v>0.009885340929031372</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0007803604821674526</v>
+        <v>0.008995339274406433</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005800158251076937</v>
+        <v>0.01747129671275616</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001752109499648213</v>
+        <v>0.03851215541362762</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000457374844700098</v>
+        <v>0.04046046361327171</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003010461572557688</v>
+        <v>0.01446469034999609</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001831847708672285</v>
+        <v>0.01643808372318745</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002704221289604902</v>
+        <v>0.01281226519495249</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0005577652482315898</v>
+        <v>0.00535425404086709</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0004233578220009804</v>
+        <v>0.001834262162446976</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0002960871206596494</v>
+        <v>0.009932874701917171</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0002715625450946391</v>
+        <v>0.01462620310485363</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001282074488699436</v>
+        <v>0.004064104519784451</v>
       </c>
       <c r="V9" t="n">
-        <v>0.000850174343213439</v>
+        <v>0.01587281562387943</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0007335185073316097</v>
+        <v>0.0001729544019326568</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0003036421840079129</v>
+        <v>0.004395187832415104</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0009974833810701966</v>
+        <v>0.0009836833924055099</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0001824187056627125</v>
+        <v>0.01125235110521317</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0005878704250790179</v>
+        <v>0.00741525087505579</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0006561540649272501</v>
+        <v>0.009159192442893982</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001158825820311904</v>
+        <v>0.008151421323418617</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0004194600624032319</v>
+        <v>0.024405712261796</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.000448318780399859</v>
+        <v>0.002387308748438954</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0006374169606715441</v>
+        <v>0.01478742808103561</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.00215479638427496</v>
+        <v>0.006810496561229229</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0004262583679519594</v>
+        <v>0.008643059059977531</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.001646560966037214</v>
+        <v>0.00451005483046174</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.001235373900271952</v>
+        <v>0.0003937049768865108</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0007132743485271931</v>
+        <v>0.007120808120816946</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.163799066096544e-05</v>
+        <v>0.0126794371753931</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.001686747535131872</v>
+        <v>0.01279130205512047</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0003932779072783887</v>
+        <v>0.02000257931649685</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0002316554018761963</v>
+        <v>0.01565365865826607</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0003339258546475321</v>
+        <v>0.001371710211969912</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0005855437484569848</v>
+        <v>0.01077150832861662</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0002580166619736701</v>
+        <v>0.001746273133903742</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0002621648018248379</v>
+        <v>0.0006315805949270725</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001499727717600763</v>
+        <v>0.01729169487953186</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0004245060845278203</v>
+        <v>0.007396777160465717</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0009644735837355256</v>
+        <v>0.03314302861690521</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.001429692259989679</v>
+        <v>0.02117105387151241</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0007040597265586257</v>
+        <v>0.03521532565355301</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0003682647657115012</v>
+        <v>0.006597305648028851</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0003837530384771526</v>
+        <v>0.02139674127101898</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.001934482250362635</v>
+        <v>0.005044488701969385</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.001246104016900063</v>
+        <v>0.01179184578359127</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.001024575904011726</v>
+        <v>0.007316176313906908</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.002021115971729159</v>
+        <v>0.01300099398940802</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.0004436408344190568</v>
+        <v>0.001146908150985837</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0005510668270289898</v>
+        <v>0.02593090571463108</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.002376822289079428</v>
+        <v>0.005580166820436716</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.001477536512538791</v>
+        <v>0.01735085062682629</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.001071212464012206</v>
+        <v>0.02521853893995285</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.002290355740115047</v>
+        <v>0.009573593735694885</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.0009679569629952312</v>
+        <v>0.002054584678262472</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0003415815881453454</v>
+        <v>0.008270724676549435</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001200006925500929</v>
+        <v>0.01609653234481812</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0007124334806576371</v>
+        <v>0.0007248867768794298</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0001347709039691836</v>
+        <v>0.008894989266991615</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0004949443391524255</v>
+        <v>0.00767096783965826</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0003274586633779109</v>
+        <v>0.01220686547458172</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0001689819619059563</v>
+        <v>0.0146844033151865</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0005417388747446239</v>
+        <v>0.009211755357682705</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0002704699581954628</v>
+        <v>0.008202935568988323</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.001022850396111608</v>
+        <v>0.00453936168923974</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.000515278778038919</v>
+        <v>0.01963561587035656</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.001639600843191147</v>
+        <v>0.01284512970596552</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001454634038964286</v>
+        <v>0.008238972164690495</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0001808949164114892</v>
+        <v>0.01381026674062014</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0003952273400500417</v>
+        <v>0.004811363760381937</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0002796462504193187</v>
+        <v>0.004565735813230276</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.001040548318997025</v>
+        <v>0.01779408752918243</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.001434305682778358</v>
+        <v>0.0008402486564591527</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.0005318377516232431</v>
+        <v>0.00268595153465867</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0003038202994503081</v>
+        <v>0.005799674428999424</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.0001975034683709964</v>
+        <v>0.007558271754533052</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0004804346826858819</v>
+        <v>0.0001420513726770878</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.000841923407278955</v>
+        <v>0.003783962223678827</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.0001135779020842165</v>
+        <v>0.004397457465529442</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.000470271217636764</v>
+        <v>0.003116457723081112</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0002178624999942258</v>
+        <v>0.003970461897552013</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0002580876462161541</v>
+        <v>0.006388041656464338</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0005488359020091593</v>
+        <v>0.01555388048291206</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.001719063147902489</v>
+        <v>0.02877104096114635</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0009679916547611356</v>
+        <v>0.001849996158853173</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0005939117399975657</v>
+        <v>0.001328023034147918</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0007839826866984367</v>
+        <v>0.01293819025158882</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.000392550602555275</v>
+        <v>0.003432570490986109</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.00153289083391428</v>
+        <v>0.02496259659528732</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.000137995695695281</v>
+        <v>8.382985834032297e-05</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0004229161713737994</v>
+        <v>0.01109590474516153</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.000320406979881227</v>
+        <v>0.00199398398399353</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0003535734140314162</v>
+        <v>0.00369123974815011</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.0001105364062823355</v>
+        <v>0.01039757858961821</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0003266071144025773</v>
+        <v>0.004139939323067665</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0008611734956502914</v>
+        <v>0.002769659040495753</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.0005544218583963811</v>
+        <v>0.000951757188886404</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.000412553345086053</v>
+        <v>0.002164091449230909</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.000260645552771166</v>
+        <v>0.001638632966205478</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.000306180416373536</v>
+        <v>0.00991674792021513</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.001790280919522047</v>
+        <v>0.01445461809635162</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.002761947689577937</v>
+        <v>0.00406339205801487</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.001893370528705418</v>
+        <v>0.02302354946732521</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.001656662090681493</v>
+        <v>0.01764534786343575</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0008705268264748156</v>
+        <v>0.006270334124565125</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.951950930058956e-06</v>
+        <v>0.02498973347246647</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.001746343215927482</v>
+        <v>0.005326267331838608</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.001071752514690161</v>
+        <v>0.001510396134108305</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.001460797502659261</v>
+        <v>0.005254453979432583</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0005490967305377126</v>
+        <v>0.001722866320051253</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.0006276428466662765</v>
+        <v>0.008100993931293488</v>
       </c>
       <c r="DP9" t="n">
-        <v>7.919294876046479e-05</v>
+        <v>0.002867067698389292</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.00116949190851301</v>
+        <v>0.008288617245852947</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.001305178157053888</v>
+        <v>0.05154356732964516</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.001031535095535219</v>
+        <v>0.003030167892575264</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0004921664949506521</v>
+        <v>0.003703192807734013</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0006938089500181377</v>
+        <v>0.009493870660662651</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.001302315155044198</v>
+        <v>0.008228454738855362</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.0007469385163858533</v>
+        <v>0.003602497279644012</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0009002314181998372</v>
+        <v>0.01532528270035982</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.001024004770442843</v>
+        <v>0.001319977804087102</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.001306287012994289</v>
+        <v>0.008911756798624992</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0006277826032601297</v>
+        <v>0.006437818985432386</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.0002679834142327309</v>
+        <v>0.008225969970226288</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.0009241189691238105</v>
+        <v>0.00399232329800725</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0003503621264826506</v>
+        <v>0.01205769088119268</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0005876301438547671</v>
+        <v>0.008929283358156681</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0004882988287135959</v>
+        <v>0.002996499417349696</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.000691983790602535</v>
+        <v>0.01315996609628201</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0001394319551764056</v>
+        <v>0.002547297161072493</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.000361204263754189</v>
+        <v>0.004537288099527359</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.001645973417907953</v>
+        <v>0.0003281267709098756</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.0006942289764992893</v>
+        <v>0.003128781914710999</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0001996555074583739</v>
+        <v>0.007023955695331097</v>
       </c>
       <c r="EM9" t="n">
-        <v>2.424516424071044e-06</v>
+        <v>0.006952359341084957</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.0001054329623002559</v>
+        <v>0.005271011497825384</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0001309610670432448</v>
+        <v>0.003744372166693211</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.018417818471789e-06</v>
+        <v>0.001958776032552123</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0003757585946004838</v>
+        <v>0.02098032273352146</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0008916633669286966</v>
+        <v>0.009954046458005905</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.000189805548870936</v>
+        <v>0.02375808171927929</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.000945752952247858</v>
+        <v>2.80328094959259e-07</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.001158569706603885</v>
+        <v>0.007662756834179163</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.232647628057748e-05</v>
+        <v>0.002045269357040524</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.0003170957788825035</v>
+        <v>0.02340810559689999</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.0006097115110605955</v>
+        <v>0.002841509180143476</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.0004358928999863565</v>
+        <v>0.01073160767555237</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.234591763932258e-05</v>
+        <v>0.008520260453224182</v>
       </c>
       <c r="FA9" t="n">
-        <v>8.809988503344357e-05</v>
+        <v>0.002400154713541269</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0009813805809244514</v>
+        <v>0.003515562508255243</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0002980193821713328</v>
+        <v>0.001249822555109859</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.00042309844866395</v>
+        <v>0.004179348237812519</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0001395979197695851</v>
+        <v>0.002130007138475776</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0001014731096802279</v>
+        <v>0.009489067830145359</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.0007297687698155642</v>
+        <v>0.01746462285518646</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.631118695717305e-05</v>
+        <v>0.003086776472628117</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0004306759219616652</v>
+        <v>0.0003610597923398018</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.0007501667132601142</v>
+        <v>0.005530375987291336</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0004045744426548481</v>
+        <v>0.02333594486117363</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0008314177975989878</v>
+        <v>0.006434733513742685</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.001554440706968307</v>
+        <v>0.01055222563445568</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.0004498349444475025</v>
+        <v>0.009466700255870819</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.001106431358493865</v>
+        <v>0.005004132632166147</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.001781646511517465</v>
+        <v>0.009935393929481506</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0001292264787480235</v>
+        <v>0.01999098248779774</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.379305755719543e-05</v>
+        <v>0.01254355814307928</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0007214185316115618</v>
+        <v>0.004733195062726736</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.000368581444490701</v>
+        <v>0.02078814059495926</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.0005435430211946368</v>
+        <v>0.003801902290433645</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.0006323860725387931</v>
+        <v>0.007895423099398613</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0002829699369613081</v>
+        <v>0.001555835828185081</v>
       </c>
       <c r="FX9" t="n">
-        <v>8.061506377998739e-07</v>
+        <v>0.009167751297354698</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.30276637012139e-05</v>
+        <v>0.0009005906758829951</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0003543802595231682</v>
+        <v>0.003728589508682489</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.711845005862415e-05</v>
+        <v>0.006051718257367611</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.002271544886752963</v>
+        <v>0.004656402859836817</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.001164503395557404</v>
+        <v>0.001286176731809974</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.0004828654928132892</v>
+        <v>0.01931558176875114</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0004849008400924504</v>
+        <v>0.005303526297211647</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0004477624606806785</v>
+        <v>0.04149214178323746</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.089435136236716e-05</v>
+        <v>0.01319543458521366</v>
       </c>
     </row>
   </sheetData>
